--- a/홈페이지 리스트.xlsx
+++ b/홈페이지 리스트.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F7B7EE-33AA-4655-A394-DCFA28B88E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116C8565-CAFA-4DDE-BA29-3627BDF183C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
+    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="ToDoList" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>https://www.bigdata-environment.kr/user/data_market/detail.do?id=27449c80-20ff-11ec-a070-ab81432fd4e1#!</t>
   </si>
@@ -62,6 +64,79 @@
   </si>
   <si>
     <t>https://data.gg.go.kr/portal/data/service/selectServicePage.do?page=1&amp;rows=10&amp;sortColumn=&amp;sortDirection=&amp;infId=VI0D9IY634MNRGJITBI527985650&amp;infSeq=1&amp;order=&amp;loc=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지빈곤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xd.adobe.com/view/1e04d382-fc0e-4f8f-bce2-ce6051ad1911-4b57/</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/proto/OU9cz87UAILGWChiE6NlHE/RE100_?node-id=987-14472&amp;t=C1xQYsPbdfNNNjJo-1&amp;scaling=contain&amp;content-scaling=fixed&amp;page-id=4%3A88</t>
+  </si>
+  <si>
+    <t>Adobe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크업데이트: 12월 17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크업데이트: 1월 3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기후경영서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.ggenergy.or.kr/</t>
+  </si>
+  <si>
+    <t>경기 에너지데이터 플랫폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성시 에너지 탄소중립 플랫폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://223.130.171.62/hue/section/dashboard</t>
+  </si>
+  <si>
+    <t>환경 빅데이터 플랫폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigdata-environment.kr/user/main.do</t>
+  </si>
+  <si>
+    <t>건축HUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hub.go.kr/portal/opn/lps/idx-lgcpt-pvsn-srvc-list.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://climate.gg.go.kr/bbs/main/index.do</t>
+  </si>
+  <si>
+    <t>https://xd.adobe.com/view/3d3ed38e-eab2-4d9e-b8fd-8c2a362487d2-686d/screen/72dad10f-d184-4fa3-ad45-4a47b287d596</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwkimgri@gmail.com / rlaehddn34!@</t>
+  </si>
+  <si>
+    <t>Edraw 아2D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,12 +170,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,11 +207,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,11 +554,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63CC0C-E2FC-48E6-B6A3-52CED4FFBB6A}">
+  <dimension ref="A2:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1" xr:uid="{66FE0B5B-CC36-40AE-95F5-B2A3EA4AF658}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{C92C44EA-6286-4811-BDAD-863D036710F2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F89948A-3A38-48D5-B16A-D64CDA721B74}">
+  <dimension ref="A3:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="14" max="14" width="9.125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AD8E00-3C4D-4BC9-BC17-D744D26B9638}">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/홈페이지 리스트.xlsx
+++ b/홈페이지 리스트.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116C8565-CAFA-4DDE-BA29-3627BDF183C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9316AAA2-BE44-4C28-B3B2-90A10182BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="ToDoList" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,38 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>https://www.bigdata-environment.kr/user/data_market/detail.do?id=27449c80-20ff-11ec-a070-ab81432fd4e1#!</t>
-  </si>
-  <si>
-    <t>envbigdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈페이지 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈페이지 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경기데이터드림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태양광 전기사업허가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://data.gg.go.kr/portal/data/service/selectServicePage.do?page=1&amp;rows=10&amp;sortColumn=&amp;sortDirection=&amp;infId=VI0D9IY634MNRGJITBI527985650&amp;infSeq=1&amp;order=&amp;loc=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에너지빈곤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>https://xd.adobe.com/view/1e04d382-fc0e-4f8f-bce2-ce6051ad1911-4b57/</t>
   </si>
@@ -170,18 +137,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -207,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,9 +176,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,104 +515,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63CC0C-E2FC-48E6-B6A3-52CED4FFBB6A}">
   <dimension ref="A2:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
+      <c r="A10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
+      <c r="A15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
+      <c r="A20" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
+      <c r="A23" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>19</v>
+      <c r="A26" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>21</v>
+      <c r="A29" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>26</v>
+      <c r="A32" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -665,81 +623,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F89948A-3A38-48D5-B16A-D64CDA721B74}">
-  <dimension ref="A3:N3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="14" max="14" width="9.125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AD8E00-3C4D-4BC9-BC17-D744D26B9638}">
-  <dimension ref="A2:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{DB5A1048-B0DF-487A-B3B9-9CD0DEC8692B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/홈페이지 리스트.xlsx
+++ b/홈페이지 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9316AAA2-BE44-4C28-B3B2-90A10182BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A5C207-1EC8-47AF-A9F4-527205DD1B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
+    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>https://xd.adobe.com/view/1e04d382-fc0e-4f8f-bce2-ce6051ad1911-4b57/</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>Edraw 아2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://oasis.krei.re.kr/basicInfo/weather/observe.do</t>
+  </si>
+  <si>
+    <t>관측기상 시군별(한정된 지역) 농업관측 통계정보시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apihub.kma.go.kr/urlRedirect.do?seqApi=971&amp;seqApiSub=983&amp;apiMov=2A</t>
+  </si>
+  <si>
+    <t>일사량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상청 API 허브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,113 +531,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63CC0C-E2FC-48E6-B6A3-52CED4FFBB6A}">
-  <dimension ref="A2:B33"/>
+  <dimension ref="A2:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" xr:uid="{66FE0B5B-CC36-40AE-95F5-B2A3EA4AF658}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{C92C44EA-6286-4811-BDAD-863D036710F2}"/>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{66FE0B5B-CC36-40AE-95F5-B2A3EA4AF658}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{C92C44EA-6286-4811-BDAD-863D036710F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/홈페이지 리스트.xlsx
+++ b/홈페이지 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A5C207-1EC8-47AF-A9F4-527205DD1B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159CD23-EC03-4860-A1E7-405C6D11B47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
+    <workbookView minimized="1" xWindow="345" yWindow="0" windowWidth="12195" windowHeight="19470" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>https://xd.adobe.com/view/1e04d382-fc0e-4f8f-bce2-ce6051ad1911-4b57/</t>
   </si>
@@ -107,21 +107,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>관측기상 시군별(한정된 지역) 농업관측 통계정보시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일사량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상청 API 허브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://oasis.krei.re.kr/basicInfo/weather/observe.do</t>
-  </si>
-  <si>
-    <t>관측기상 시군별(한정된 지역) 농업관측 통계정보시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigdata-map.kr/search/95260868</t>
+  </si>
+  <si>
+    <t>https://www.data.go.kr/data/15066413/fileData.do</t>
+  </si>
+  <si>
+    <t>에기연 수평면 전일사량 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.alioplus.go.kr/news/newsDetail.do;jsessionid=ftzR90Gs0Ci1PDPA23G4+Pfy.node11?brdSeq=15204</t>
+  </si>
+  <si>
+    <t>https://new.kpx.or.kr/menu.es?mid=a10902080200</t>
+  </si>
+  <si>
+    <t>실시간 태양광 발전 정보(국내 전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://apihub.kma.go.kr/urlRedirect.do?seqApi=971&amp;seqApiSub=983&amp;apiMov=2A</t>
-  </si>
-  <si>
-    <t>일사량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기상청 API 허브</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +177,15 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -186,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,6 +229,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,9 +569,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63CC0C-E2FC-48E6-B6A3-52CED4FFBB6A}">
-  <dimension ref="A2:C40"/>
+  <dimension ref="A2:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -635,25 +673,61 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>19</v>
+      <c r="B37" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>21</v>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -661,6 +735,8 @@
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{66FE0B5B-CC36-40AE-95F5-B2A3EA4AF658}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{C92C44EA-6286-4811-BDAD-863D036710F2}"/>
+    <hyperlink ref="B37" r:id="rId3" xr:uid="{51A861B9-927D-41E6-B2A8-F45706A8AEC6}"/>
+    <hyperlink ref="B40" r:id="rId4" xr:uid="{091A4812-B03F-4B50-AFBE-017B19A05CAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/홈페이지 리스트.xlsx
+++ b/홈페이지 리스트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1159CD23-EC03-4860-A1E7-405C6D11B47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464E6D4-78DC-4397-BB5C-7AE0E2959E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="345" yWindow="0" windowWidth="12195" windowHeight="19470" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
+    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -41,113 +41,114 @@
     <t>https://xd.adobe.com/view/1e04d382-fc0e-4f8f-bce2-ce6051ad1911-4b57/</t>
   </si>
   <si>
+    <t>Adobe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크업데이트: 12월 17일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크업데이트: 1월 3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기후경영서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.ggenergy.or.kr/</t>
+  </si>
+  <si>
+    <t>경기 에너지데이터 플랫폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성시 에너지 탄소중립 플랫폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://223.130.171.62/hue/section/dashboard</t>
+  </si>
+  <si>
+    <t>환경 빅데이터 플랫폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigdata-environment.kr/user/main.do</t>
+  </si>
+  <si>
+    <t>건축HUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hub.go.kr/portal/opn/lps/idx-lgcpt-pvsn-srvc-list.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://climate.gg.go.kr/bbs/main/index.do</t>
+  </si>
+  <si>
+    <t>https://xd.adobe.com/view/3d3ed38e-eab2-4d9e-b8fd-8c2a362487d2-686d/screen/72dad10f-d184-4fa3-ad45-4a47b287d596</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dwkimgri@gmail.com / rlaehddn34!@</t>
+  </si>
+  <si>
+    <t>Edraw 아2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관측기상 시군별(한정된 지역) 농업관측 통계정보시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일사량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상청 API 허브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://oasis.krei.re.kr/basicInfo/weather/observe.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigdata-map.kr/search/95260868</t>
+  </si>
+  <si>
+    <t>https://www.data.go.kr/data/15066413/fileData.do</t>
+  </si>
+  <si>
+    <t>에기연 수평면 전일사량 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.alioplus.go.kr/news/newsDetail.do;jsessionid=ftzR90Gs0Ci1PDPA23G4+Pfy.node11?brdSeq=15204</t>
+  </si>
+  <si>
+    <t>https://new.kpx.or.kr/menu.es?mid=a10902080200</t>
+  </si>
+  <si>
+    <t>실시간 태양광 발전 정보(국내 전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KPX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apihub.kma.go.kr/urlRedirect.do?seqApi=971&amp;seqApiSub=983&amp;apiMov=2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.figma.com/proto/OU9cz87UAILGWChiE6NlHE/RE100_?node-id=987-14472&amp;t=C1xQYsPbdfNNNjJo-1&amp;scaling=contain&amp;content-scaling=fixed&amp;page-id=4%3A88</t>
-  </si>
-  <si>
-    <t>Adobe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Figma</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>링크업데이트: 12월 17일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>링크업데이트: 1월 3일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기후경영서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://data.ggenergy.or.kr/</t>
-  </si>
-  <si>
-    <t>경기 에너지데이터 플랫폼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화성시 에너지 탄소중립 플랫폼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://223.130.171.62/hue/section/dashboard</t>
-  </si>
-  <si>
-    <t>환경 빅데이터 플랫폼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigdata-environment.kr/user/main.do</t>
-  </si>
-  <si>
-    <t>건축HUB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.hub.go.kr/portal/opn/lps/idx-lgcpt-pvsn-srvc-list.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://climate.gg.go.kr/bbs/main/index.do</t>
-  </si>
-  <si>
-    <t>https://xd.adobe.com/view/3d3ed38e-eab2-4d9e-b8fd-8c2a362487d2-686d/screen/72dad10f-d184-4fa3-ad45-4a47b287d596</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dwkimgri@gmail.com / rlaehddn34!@</t>
-  </si>
-  <si>
-    <t>Edraw 아2D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관측기상 시군별(한정된 지역) 농업관측 통계정보시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일사량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기상청 API 허브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://oasis.krei.re.kr/basicInfo/weather/observe.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigdata-map.kr/search/95260868</t>
-  </si>
-  <si>
-    <t>https://www.data.go.kr/data/15066413/fileData.do</t>
-  </si>
-  <si>
-    <t>에기연 수평면 전일사량 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.alioplus.go.kr/news/newsDetail.do;jsessionid=ftzR90Gs0Ci1PDPA23G4+Pfy.node11?brdSeq=15204</t>
-  </si>
-  <si>
-    <t>https://new.kpx.or.kr/menu.es?mid=a10902080200</t>
-  </si>
-  <si>
-    <t>실시간 태양광 발전 정보(국내 전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KPX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apihub.kma.go.kr/urlRedirect.do?seqApi=971&amp;seqApiSub=983&amp;apiMov=2A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,15 +572,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63CC0C-E2FC-48E6-B6A3-52CED4FFBB6A}">
   <dimension ref="A2:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -587,15 +588,15 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -603,131 +604,131 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>1</v>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -737,6 +738,7 @@
     <hyperlink ref="B4" r:id="rId2" xr:uid="{C92C44EA-6286-4811-BDAD-863D036710F2}"/>
     <hyperlink ref="B37" r:id="rId3" xr:uid="{51A861B9-927D-41E6-B2A8-F45706A8AEC6}"/>
     <hyperlink ref="B40" r:id="rId4" xr:uid="{091A4812-B03F-4B50-AFBE-017B19A05CAA}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{C9D6163D-1248-42DD-89EA-00DBE7B38685}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/홈페이지 리스트.xlsx
+++ b/홈페이지 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9464E6D4-78DC-4397-BB5C-7AE0E2959E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72788FF2-B75C-4637-911E-ECBC426377D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>https://xd.adobe.com/view/1e04d382-fc0e-4f8f-bce2-ce6051ad1911-4b57/</t>
   </si>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>https://www.figma.com/proto/OU9cz87UAILGWChiE6NlHE/RE100_?node-id=987-14472&amp;t=C1xQYsPbdfNNNjJo-1&amp;scaling=contain&amp;content-scaling=fixed&amp;page-id=4%3A88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.figma.com/proto/OU9cz87UAILGWChiE6NlHE/RE100_?node-id=824-10650&amp;t=dlU9lG8136B3u55U-0&amp;scaling=contain&amp;content-scaling=fixed&amp;page-id=4%3A88&amp;starting-point-node-id=824%3A10650&amp;show-proto-sidebar=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 13일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +581,7 @@
   <dimension ref="A2:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,7 +608,9 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -610,6 +620,9 @@
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -739,6 +752,7 @@
     <hyperlink ref="B37" r:id="rId3" xr:uid="{51A861B9-927D-41E6-B2A8-F45706A8AEC6}"/>
     <hyperlink ref="B40" r:id="rId4" xr:uid="{091A4812-B03F-4B50-AFBE-017B19A05CAA}"/>
     <hyperlink ref="B11" r:id="rId5" xr:uid="{C9D6163D-1248-42DD-89EA-00DBE7B38685}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{6D4DA640-B8D1-4F9D-AF9D-5070DC29D94E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/홈페이지 리스트.xlsx
+++ b/홈페이지 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72788FF2-B75C-4637-911E-ECBC426377D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E7030-C084-414A-A347-D25E2084F678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A2:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/홈페이지 리스트.xlsx
+++ b/홈페이지 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E7030-C084-414A-A347-D25E2084F678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0DCE11-1C8E-401B-9DF2-1088DAA88738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-5020" windowWidth="38620" windowHeight="21100" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -581,7 +581,7 @@
   <dimension ref="A2:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/홈페이지 리스트.xlsx
+++ b/홈페이지 리스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeon\Desktop\[GRI] GitHub\platForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0DCE11-1C8E-401B-9DF2-1088DAA88738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CFE19E-A9E8-48A2-B6BC-E921717C4247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{297166EE-6086-49C4-9CE2-3AD6DB9CC536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -245,8 +245,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -581,17 +581,17 @@
   <dimension ref="A2:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -607,17 +607,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
@@ -625,77 +625,77 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -703,17 +703,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -721,22 +721,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B49" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>27</v>
       </c>
